--- a/To work on - Data Analysis.xlsx
+++ b/To work on - Data Analysis.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StrealitApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuber Inventory\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="229">
   <si>
     <t>To take out efficiency parameters</t>
   </si>
@@ -730,6 +730,12 @@
   </si>
   <si>
     <t>ProductTypes</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>Gl wire</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1310,39 +1316,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="29" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1362,6 +1336,41 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1907,9 +1916,9 @@
       <c r="M31" s="7"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A32" s="57"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
       <c r="D32" s="8"/>
       <c r="E32" s="9"/>
       <c r="F32" s="10"/>
@@ -1927,12 +1936,12 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
       <c r="E33" s="9"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -1971,8 +1980,8 @@
       <c r="A35" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="79"/>
       <c r="D35" s="18" t="s">
         <v>56</v>
       </c>
@@ -2009,8 +2018,8 @@
         <v>62</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="65"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="82"/>
       <c r="M37" s="24" t="s">
         <v>63</v>
       </c>
@@ -2102,11 +2111,11 @@
       <c r="A42" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="66">
+      <c r="B42" s="78">
         <f>SUM(B41:C41)</f>
         <v>0</v>
       </c>
-      <c r="C42" s="63"/>
+      <c r="C42" s="79"/>
       <c r="D42" s="18" t="s">
         <v>65</v>
       </c>
@@ -2155,25 +2164,25 @@
         <v>76</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="65"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="82"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1">
       <c r="A45" s="30"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="69"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="86"/>
       <c r="I45" s="2"/>
       <c r="J45" s="31"/>
       <c r="K45" s="31"/>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="61"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="77"/>
       <c r="I46" s="2"/>
       <c r="J46" s="32"/>
       <c r="K46" s="32"/>
@@ -2182,15 +2191,15 @@
       <c r="A47" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="71"/>
-      <c r="C47" s="63"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="33"/>
       <c r="F47" s="2"/>
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="65"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="82"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1">
       <c r="A48" s="17"/>
@@ -2207,8 +2216,8 @@
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="2"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="65"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="82"/>
       <c r="L48" s="1" t="s">
         <v>79</v>
       </c>
@@ -2300,11 +2309,11 @@
       <c r="A53" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="66">
+      <c r="B53" s="78">
         <f>SUM(B52:C52)</f>
         <v>0</v>
       </c>
-      <c r="C53" s="63"/>
+      <c r="C53" s="79"/>
       <c r="D53" s="35"/>
       <c r="F53" s="2"/>
       <c r="G53" s="23"/>
@@ -2347,16 +2356,16 @@
       </c>
       <c r="D55" s="38"/>
       <c r="I55" s="2"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="65"/>
+      <c r="J55" s="81"/>
+      <c r="K55" s="82"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="I56" s="2"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="65"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="82"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
@@ -2365,22 +2374,22 @@
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="I57" s="2"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="65"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="82"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1">
       <c r="A58" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="70" t="s">
+      <c r="B58" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="63"/>
-      <c r="D58" s="70" t="s">
+      <c r="C58" s="79"/>
+      <c r="D58" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="E58" s="60"/>
-      <c r="F58" s="63"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="79"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="22"/>
@@ -2448,12 +2457,12 @@
       </c>
       <c r="B62" s="23"/>
       <c r="C62" s="23"/>
-      <c r="I62" s="59" t="s">
+      <c r="I62" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="J62" s="60"/>
-      <c r="K62" s="60"/>
-      <c r="L62" s="61"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="77"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1">
       <c r="A63" s="17" t="s">
@@ -2597,11 +2606,11 @@
       <c r="I70" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="J70" s="66">
+      <c r="J70" s="78">
         <f>SUM(J69:K69)</f>
         <v>0</v>
       </c>
-      <c r="K70" s="63"/>
+      <c r="K70" s="79"/>
       <c r="L70" s="35"/>
       <c r="M70" s="2"/>
     </row>
@@ -4880,6 +4889,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="J57:K57"/>
     <mergeCell ref="I62:L62"/>
     <mergeCell ref="J70:K70"/>
     <mergeCell ref="A46:D46"/>
@@ -4889,16 +4908,6 @@
     <mergeCell ref="J55:K55"/>
     <mergeCell ref="J56:K56"/>
     <mergeCell ref="D58:F58"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="B42:C42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5806,10 +5815,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -5818,287 +5827,317 @@
     <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="9" max="9" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="57" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="10" max="10" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="61" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="I1" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="J1" s="61" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="76">
+    <row r="2" spans="1:10">
+      <c r="A2" s="62">
         <v>1</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="62" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="76">
+      <c r="E2" s="62">
         <v>5000</v>
       </c>
-      <c r="F2" s="78">
+      <c r="F2" s="64">
         <v>44571</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="90">
+        <v>10000</v>
+      </c>
+      <c r="H2" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="I2" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="J2" s="62" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="76">
+    <row r="3" spans="1:10">
+      <c r="A3" s="62">
         <v>2</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="76">
+      <c r="E3" s="62">
         <v>5000</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="64">
         <v>44625</v>
       </c>
-      <c r="G3" s="81" t="s">
+      <c r="G3" s="91">
+        <v>5000</v>
+      </c>
+      <c r="H3" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="I3" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="I3" s="76" t="s">
+      <c r="J3" s="62" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="76">
+    <row r="4" spans="1:10">
+      <c r="A4" s="62">
         <v>3</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="E4" s="76">
-        <v>10400</v>
-      </c>
-      <c r="F4" s="78">
+      <c r="E4" s="62">
+        <v>10600</v>
+      </c>
+      <c r="F4" s="64">
         <v>44671</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="91">
+        <v>14200</v>
+      </c>
+      <c r="H4" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="H4" s="82" t="s">
+      <c r="I4" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="J4" s="62" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="76">
+    <row r="5" spans="1:10">
+      <c r="A5" s="62">
         <v>4</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="62">
+        <v>450</v>
+      </c>
+      <c r="F5" s="64">
+        <v>44727</v>
+      </c>
+      <c r="G5" s="91">
         <v>300</v>
       </c>
-      <c r="F5" s="78">
-        <v>44727</v>
-      </c>
-      <c r="G5" s="83" t="s">
+      <c r="H5" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="82" t="s">
+      <c r="I5" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="J5" s="62" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="76">
+    <row r="6" spans="1:10">
+      <c r="A6" s="62">
         <v>5</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="76">
+      <c r="E6" s="62">
         <v>200</v>
       </c>
-      <c r="F6" s="78">
+      <c r="F6" s="64">
         <v>44764</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="91">
+        <v>200</v>
+      </c>
+      <c r="H6" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="H6" s="82" t="s">
+      <c r="I6" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="J6" s="62" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="76">
+    <row r="7" spans="1:10">
+      <c r="A7" s="62">
         <v>6</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="62" t="s">
         <v>174</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="62">
         <v>1000</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="64">
         <v>45024</v>
       </c>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="91">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="H7" s="82" t="s">
+      <c r="I7" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="I7" s="76" t="s">
+      <c r="J7" s="62" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="76">
+    <row r="8" spans="1:10">
+      <c r="A8" s="62">
         <v>7</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="62" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="62">
         <v>3000</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="64">
         <v>45060</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="91">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="I8" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="J8" s="62" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="76">
+    <row r="9" spans="1:10">
+      <c r="A9" s="62">
         <v>8</v>
       </c>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="62">
         <v>100</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="64">
         <v>45106</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="91">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="67" t="s">
         <v>175</v>
       </c>
-      <c r="H9" s="82" t="s">
+      <c r="I9" s="68" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="J9" s="62" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="B10" s="51"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="52"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11" s="51"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="52"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="52"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E11 G2:G11">
+  <conditionalFormatting sqref="E2:E11 H2:H11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>50</formula>
     </cfRule>
@@ -6139,38 +6178,44 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="6" max="6" width="11.25" style="57"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>197</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="73" t="s">
         <v>226</v>
       </c>
       <c r="D1" s="53" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="53">
         <v>1</v>
       </c>
@@ -6186,15 +6231,18 @@
       <c r="E2" s="5">
         <v>1000</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="53">
         <v>1.5</v>
       </c>
-      <c r="G2" s="55">
-        <f t="shared" ref="G2:G21" si="0">F2/25.4</f>
+      <c r="H2" s="55">
+        <f t="shared" ref="H2:H21" si="0">G2/25.4</f>
         <v>5.9055118110236227E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="53">
         <v>2</v>
       </c>
@@ -6210,15 +6258,18 @@
       <c r="E3" s="5">
         <v>1200</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="53">
         <v>2.11</v>
       </c>
-      <c r="G3" s="55">
+      <c r="H3" s="55">
         <f t="shared" si="0"/>
         <v>8.3070866141732286E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="53">
         <v>3</v>
       </c>
@@ -6234,15 +6285,18 @@
       <c r="E4" s="5">
         <v>900</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="53">
         <v>2.59</v>
       </c>
-      <c r="G4" s="55">
+      <c r="H4" s="55">
         <f t="shared" si="0"/>
         <v>0.10196850393700788</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="53">
         <v>4</v>
       </c>
@@ -6258,15 +6312,18 @@
       <c r="E5" s="5">
         <v>800</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G5" s="53">
         <v>3.35</v>
       </c>
-      <c r="G5" s="55">
+      <c r="H5" s="55">
         <f t="shared" si="0"/>
         <v>0.13188976377952757</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="53">
         <v>5</v>
       </c>
@@ -6282,15 +6339,18 @@
       <c r="E6" s="5">
         <v>1100</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="57">
+        <v>2000</v>
+      </c>
+      <c r="G6" s="53">
         <v>4.09</v>
       </c>
-      <c r="G6" s="55">
+      <c r="H6" s="55">
         <f t="shared" si="0"/>
         <v>0.1610236220472441</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="53">
         <v>7</v>
       </c>
@@ -6306,15 +6366,18 @@
       <c r="E7" s="5">
         <v>500</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="57">
+        <v>500</v>
+      </c>
+      <c r="G7" s="53">
         <v>2.59</v>
       </c>
-      <c r="G7" s="55">
+      <c r="H7" s="55">
         <f t="shared" si="0"/>
         <v>0.10196850393700788</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="53">
         <v>8</v>
       </c>
@@ -6330,15 +6393,18 @@
       <c r="E8" s="5">
         <v>500</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="57">
+        <v>500</v>
+      </c>
+      <c r="G8" s="53">
         <v>3</v>
       </c>
-      <c r="G8" s="55">
+      <c r="H8" s="55">
         <f t="shared" si="0"/>
         <v>0.11811023622047245</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="53">
         <v>9</v>
       </c>
@@ -6354,15 +6420,18 @@
       <c r="E9" s="5">
         <v>600</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="57">
+        <v>800</v>
+      </c>
+      <c r="G9" s="53">
         <v>3.18</v>
       </c>
-      <c r="G9" s="55">
+      <c r="H9" s="55">
         <f t="shared" si="0"/>
         <v>0.12519685039370079</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="53">
         <v>10</v>
       </c>
@@ -6378,15 +6447,18 @@
       <c r="E10" s="5">
         <v>600</v>
       </c>
-      <c r="F10" s="53">
+      <c r="F10" s="57">
+        <v>800</v>
+      </c>
+      <c r="G10" s="53">
         <v>3.53</v>
       </c>
-      <c r="G10" s="55">
+      <c r="H10" s="55">
         <f t="shared" si="0"/>
         <v>0.13897637795275591</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="53">
         <v>11</v>
       </c>
@@ -6402,15 +6474,18 @@
       <c r="E11" s="5">
         <v>900</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="57">
+        <v>800</v>
+      </c>
+      <c r="G11" s="53">
         <v>2.36</v>
       </c>
-      <c r="G11" s="55">
+      <c r="H11" s="55">
         <f t="shared" si="0"/>
         <v>9.2913385826771652E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="53">
         <v>12</v>
       </c>
@@ -6426,15 +6501,18 @@
       <c r="E12" s="5">
         <v>800</v>
       </c>
-      <c r="F12" s="53">
+      <c r="F12" s="57">
+        <v>800</v>
+      </c>
+      <c r="G12" s="53">
         <v>2.79</v>
       </c>
-      <c r="G12" s="55">
+      <c r="H12" s="55">
         <f t="shared" si="0"/>
         <v>0.10984251968503937</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="53">
         <v>13</v>
       </c>
@@ -6450,15 +6528,18 @@
       <c r="E13" s="5">
         <v>1100</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="57">
+        <v>800</v>
+      </c>
+      <c r="G13" s="53">
         <v>3</v>
       </c>
-      <c r="G13" s="55">
+      <c r="H13" s="55">
         <f t="shared" si="0"/>
         <v>0.11811023622047245</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="53">
         <v>14</v>
       </c>
@@ -6474,15 +6555,18 @@
       <c r="E14" s="5">
         <v>250</v>
       </c>
-      <c r="F14" s="53">
+      <c r="F14" s="5">
+        <v>250</v>
+      </c>
+      <c r="G14" s="53">
         <v>3.66</v>
       </c>
-      <c r="G14" s="55">
+      <c r="H14" s="55">
         <f t="shared" si="0"/>
         <v>0.14409448818897638</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="53">
         <v>15</v>
       </c>
@@ -6498,15 +6582,18 @@
       <c r="E15" s="5">
         <v>300</v>
       </c>
-      <c r="F15" s="53">
+      <c r="F15" s="5">
+        <v>300</v>
+      </c>
+      <c r="G15" s="53">
         <v>3.99</v>
       </c>
-      <c r="G15" s="55">
+      <c r="H15" s="55">
         <f t="shared" si="0"/>
         <v>0.15708661417322836</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="53">
         <v>16</v>
       </c>
@@ -6522,15 +6609,18 @@
       <c r="E16" s="5">
         <v>200</v>
       </c>
-      <c r="F16" s="53">
+      <c r="F16" s="5">
+        <v>200</v>
+      </c>
+      <c r="G16" s="53">
         <v>4.22</v>
       </c>
-      <c r="G16" s="55">
+      <c r="H16" s="55">
         <f t="shared" si="0"/>
         <v>0.16614173228346457</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="53">
         <v>17</v>
       </c>
@@ -6546,15 +6636,18 @@
       <c r="E17" s="5">
         <v>250</v>
       </c>
-      <c r="F17" s="53">
+      <c r="F17" s="57">
+        <v>250</v>
+      </c>
+      <c r="G17" s="53">
         <v>4.5</v>
       </c>
-      <c r="G17" s="55">
+      <c r="H17" s="55">
         <f t="shared" si="0"/>
         <v>0.17716535433070868</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="53">
         <v>19</v>
       </c>
@@ -6570,15 +6663,18 @@
       <c r="E18" s="5">
         <v>500</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="57">
+        <v>250</v>
+      </c>
+      <c r="G18" s="53">
         <v>2.36</v>
       </c>
-      <c r="G18" s="55">
+      <c r="H18" s="55">
         <f t="shared" si="0"/>
         <v>9.2913385826771652E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="53">
         <v>20</v>
       </c>
@@ -6594,15 +6690,18 @@
       <c r="E19" s="5">
         <v>700</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="57">
+        <v>250</v>
+      </c>
+      <c r="G19" s="53">
         <v>3.18</v>
       </c>
-      <c r="G19" s="55">
+      <c r="H19" s="55">
         <f t="shared" si="0"/>
         <v>0.12519685039370079</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="53">
         <v>21</v>
       </c>
@@ -6618,15 +6717,18 @@
       <c r="E20" s="5">
         <v>800</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="57">
+        <v>250</v>
+      </c>
+      <c r="G20" s="53">
         <v>3.71</v>
       </c>
-      <c r="G20" s="55">
+      <c r="H20" s="55">
         <f t="shared" si="0"/>
         <v>0.14606299212598425</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="53">
         <v>22</v>
       </c>
@@ -6642,15 +6744,18 @@
       <c r="E21" s="5">
         <v>1000</v>
       </c>
-      <c r="F21" s="53">
+      <c r="F21" s="57">
+        <v>250</v>
+      </c>
+      <c r="G21" s="53">
         <v>4.2699999999999996</v>
       </c>
-      <c r="G21" s="55">
+      <c r="H21" s="55">
         <f t="shared" si="0"/>
         <v>0.16811023622047244</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="5">
         <v>23</v>
       </c>
@@ -6663,8 +6768,11 @@
       <c r="E22" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="F22" s="57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="5">
         <v>24</v>
       </c>
@@ -6677,8 +6785,11 @@
       <c r="E23" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="F23" s="57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="5">
         <v>25</v>
       </c>
@@ -6691,8 +6802,11 @@
       <c r="E24" s="5">
         <v>150</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="F24" s="57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="5">
         <v>26</v>
       </c>
@@ -6705,8 +6819,11 @@
       <c r="E25" s="5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F25" s="57">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="5">
         <v>27</v>
       </c>
@@ -6719,8 +6836,11 @@
       <c r="E26" s="5">
         <v>2000</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="F26" s="57">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="5">
         <v>28</v>
       </c>
@@ -6733,50 +6853,62 @@
       <c r="E27" s="5">
         <v>4400</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="F27" s="57">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="57" customFormat="1">
       <c r="A28" s="5">
         <v>29</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="57">
         <v>3</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="E28" s="5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>228</v>
+      </c>
+      <c r="E28" s="57">
+        <v>200</v>
+      </c>
+      <c r="F28" s="57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="5">
         <v>30</v>
       </c>
       <c r="B29" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E29" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>3000</v>
+      </c>
+      <c r="F29" s="57">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="5">
         <v>31</v>
       </c>
       <c r="B30" s="5">
         <v>5</v>
       </c>
-      <c r="C30" s="56" t="s">
-        <v>164</v>
+      <c r="C30" s="51" t="s">
+        <v>161</v>
       </c>
       <c r="E30" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="F30" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="5">
         <v>32</v>
       </c>
@@ -6784,13 +6916,16 @@
         <v>5</v>
       </c>
       <c r="C31" s="56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E31" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="F31" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="5">
         <v>33</v>
       </c>
@@ -6798,24 +6933,47 @@
         <v>5</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E32" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="5">
         <v>34</v>
       </c>
       <c r="B33" s="5">
+        <v>5</v>
+      </c>
+      <c r="C33" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="E33" s="5">
+        <v>50</v>
+      </c>
+      <c r="F33" s="57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="57">
+        <v>35</v>
+      </c>
+      <c r="B34" s="5">
         <v>8</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E34" s="5">
         <v>100</v>
+      </c>
+      <c r="F34" s="57">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
